--- a/biology/Botanique/Lepistemon/Lepistemon.xlsx
+++ b/biology/Botanique/Lepistemon/Lepistemon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lepistemon est un genre de plantes dicotylédones de la famille des Convolvulaceae, tribu des Ipomoeeae, originaire des régions tropicales de l'Ancien Monde, qui comprend sept espèces acceptées.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, « Lepistemon », est formé de deux racines grecques,  λεπῐ́ς, λεπῐ́δος (lepis lepidos), écaille, et στημων (stemon), étamine, filet, en référence à la forme des étamines élargies à leur base[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, « Lepistemon », est formé de deux racines grecques,  λεπῐ́ς, λεπῐ́δος (lepis lepidos), écaille, et στημων (stemon), étamine, filet, en référence à la forme des étamines élargies à leur base.
 </t>
         </is>
       </c>
@@ -542,13 +556,15 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Lepistemon sont des plantes herbacées ou ligneuses, à tiges volubiles, généralement pubescentes. Les feuilles pétiolées, ont un limbe de forme ovale à orbiculaire, à base cordée, à bord entier ou lobé anguleux.
 L'inflorescence est une cyme ombelliforme, axillaire, dense,  sessile ou pédonculée.
 Les fleurs présentent un calice composé de 5 sépales sub-égaux, herbacés ou sub-coriaces, à l'apex aigu ou obtus, persistants et légèrement accrescents au fruit.
 La  corolle urcéolée, à pétales soudés en tube se rétrécissant vers le haut, présente 5 lobes peu profonds, et sur la face externes des bandes pubescentes centrées sur les pétales. Les étamines, incluses dans la corolle, ont un filament soudé à la base de la corolle,  qui s'élargit dans sa partie basale en une écaille large et concave qui s'arque au-dessus de l’ovaire, et des anthères étroitement elliptiques à linéaires. Les grains de pollen, globuleux, sont pantoporés et finement épineux. Le pistil inclus dans la corolle, présente un disque cupulaire à 5 lobes ou en forme d'anneau, un ovaire glabre ou pubescent, biloculaire, contenant 4 ovules (2 dans chaque loge), avec un style très court, terminé par deux stigmates
-Les fruits sont des capsules globuleuses à 4 valves, ou presque indéhiscentes, contenant 4 graines[3],[4].
+Les fruits sont des capsules globuleuses à 4 valves, ou presque indéhiscentes, contenant 4 graines,.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon la World Checklist of Selected Plant Families (WCSP)  (4 novembre 2019)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la World Checklist of Selected Plant Families (WCSP)  (4 novembre 2019) :
 Lepistemon binectarifer (Wall.) Kuntze (1891)
 Lepistemon intermedius Hallier f. (1899)
 Lepistemon leiocalyx Stapf (1895)
